--- a/ppt/simple example.xlsx
+++ b/ppt/simple example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryYang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryYang\Desktop\Github\NTUIIE-Reserch\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F8D924-9C52-498A-9565-F3E8D0A6C440}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0D3B6-474F-49DB-83FC-D885042ACFF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
   <si>
     <t>Animal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -146,12 +146,48 @@
     <t>Sorted</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>OneHot</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Purity</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>RND</t>
+  </si>
+  <si>
+    <t>Traditional encoding methods</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,8 +227,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +262,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6383BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B9BD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93B3EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABCBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAB5F5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC37773"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB8F8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3A7A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF818559"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B9F73"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3B78B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBCFA3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B4B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8363A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B7BBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB393D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F6000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,18 +408,78 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1405,10 +1635,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -1417,184 +1647,184 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="62">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,73 +2067,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3</c:v>
@@ -1924,25 +2154,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1</c:v>
@@ -2523,88 +2753,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -2613,37 +2843,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1</c:v>
@@ -2652,40 +2882,40 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -2706,7 +2936,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
@@ -2955,7 +3185,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2970,31 +3200,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -3003,7 +3233,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
@@ -3012,28 +3242,28 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -3075,73 +3305,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -14059,8 +14289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6FDEF-34B0-40EE-B0E5-0931DE7ABBA0}">
   <dimension ref="B1:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BB44" sqref="BB44"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14069,32 +14299,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="N1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
       <c r="Z1" s="3" t="s">
         <v>29</v>
       </c>
@@ -14276,22 +14506,22 @@
         <v>15</v>
       </c>
       <c r="S5">
-        <f>C7</f>
+        <f t="shared" ref="S5:T7" si="0">C7</f>
         <v>24</v>
       </c>
       <c r="T5">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="V5" t="s">
         <v>4</v>
       </c>
       <c r="W5">
-        <f>C10</f>
+        <f t="shared" ref="W5:X7" si="1">C10</f>
         <v>42</v>
       </c>
       <c r="X5">
-        <f>D10</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Z5" t="s">
@@ -14326,22 +14556,22 @@
       </c>
       <c r="AM5">
         <f ca="1">INT(RAND()*3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR5">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
@@ -14387,22 +14617,22 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="T6">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="V6" t="s">
         <v>5</v>
       </c>
       <c r="W6">
-        <f>C11</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="X6">
-        <f>D11</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z6" t="s">
@@ -14436,22 +14666,22 @@
         <v>1</v>
       </c>
       <c r="AM6">
-        <f t="shared" ref="AM6:AM28" ca="1" si="0">INT(RAND()*3)</f>
+        <f t="shared" ref="AM6:AM28" ca="1" si="2">INT(RAND()*3)</f>
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN29" ca="1" si="3">INT(RAND()*5)</f>
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" ref="AN6:AN29" ca="1" si="1">INT(RAND()*5)</f>
-        <v>1</v>
       </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6">
-        <f t="shared" ref="AQ6:AQ21" ca="1" si="2">INT(RAND()*5)</f>
-        <v>2</v>
+        <f t="shared" ref="AQ6:AQ20" ca="1" si="4">INT(RAND()*5)</f>
+        <v>4</v>
       </c>
       <c r="AR6">
-        <f t="shared" ref="AR6:AR21" ca="1" si="3">INT(RAND()*2)</f>
+        <f t="shared" ref="AR6:AR20" ca="1" si="5">INT(RAND()*2)</f>
         <v>0</v>
       </c>
     </row>
@@ -14498,22 +14728,22 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="T7">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="V7" t="s">
         <v>6</v>
       </c>
       <c r="W7">
-        <f>C12</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="X7">
-        <f>D12</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="Z7" t="s">
@@ -14547,22 +14777,22 @@
         <v>2</v>
       </c>
       <c r="AM7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="AN7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="AP7">
         <v>2</v>
       </c>
       <c r="AQ7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14658,22 +14888,22 @@
         <v>3</v>
       </c>
       <c r="AM8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="AN8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="AP8">
         <v>3</v>
       </c>
       <c r="AQ8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AR8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14760,22 +14990,22 @@
         <v>4</v>
       </c>
       <c r="AM9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="AP9">
         <v>4</v>
       </c>
       <c r="AQ9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="AR9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14862,23 +15092,23 @@
         <v>5</v>
       </c>
       <c r="AM10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AN10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="AP10">
         <v>5</v>
       </c>
       <c r="AQ10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="AR10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
@@ -14895,23 +15125,23 @@
         <v>6</v>
       </c>
       <c r="AM11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AP11">
         <v>6</v>
       </c>
       <c r="AQ11">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.25">
@@ -14928,22 +15158,22 @@
         <v>7</v>
       </c>
       <c r="AM12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="AP12">
         <v>7</v>
       </c>
       <c r="AQ12">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="AR12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -14952,23 +15182,23 @@
         <v>8</v>
       </c>
       <c r="AM13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>8</v>
       </c>
       <c r="AQ13">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.25">
@@ -14976,22 +15206,22 @@
         <v>9</v>
       </c>
       <c r="AM14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="AP14">
         <v>9</v>
       </c>
       <c r="AQ14">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15000,23 +15230,23 @@
         <v>10</v>
       </c>
       <c r="AM15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="AP15">
         <v>10</v>
       </c>
       <c r="AQ15">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.25">
@@ -15024,22 +15254,22 @@
         <v>11</v>
       </c>
       <c r="AM16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
       </c>
       <c r="AP16">
         <v>11</v>
       </c>
       <c r="AQ16">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="AR16">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15048,23 +15278,23 @@
         <v>12</v>
       </c>
       <c r="AM17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AN17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="AP17">
         <v>12</v>
       </c>
       <c r="AQ17">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="34:44" x14ac:dyDescent="0.25">
@@ -15072,23 +15302,23 @@
         <v>13</v>
       </c>
       <c r="AM18">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="AP18">
         <v>13</v>
       </c>
       <c r="AQ18">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="34:44" x14ac:dyDescent="0.25">
@@ -15105,22 +15335,22 @@
         <v>14</v>
       </c>
       <c r="AM19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="AP19">
         <v>14</v>
       </c>
       <c r="AQ19">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="AR19">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -15138,22 +15368,22 @@
         <v>15</v>
       </c>
       <c r="AM20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="AP20">
         <v>15</v>
       </c>
       <c r="AQ20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="AR20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15171,11 +15401,11 @@
         <v>16</v>
       </c>
       <c r="AM21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="AP21">
@@ -15183,11 +15413,11 @@
       </c>
       <c r="AQ21">
         <f ca="1">INT(RAND()*3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <f ca="1">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="34:44" x14ac:dyDescent="0.25">
@@ -15204,22 +15434,22 @@
         <v>17</v>
       </c>
       <c r="AM22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AN22">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="AP22">
         <v>17</v>
       </c>
       <c r="AQ22">
-        <f t="shared" ref="AQ22:AQ43" ca="1" si="4">INT(RAND()*3)</f>
-        <v>2</v>
+        <f t="shared" ref="AQ22:AQ42" ca="1" si="6">INT(RAND()*3)</f>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <f t="shared" ref="AR22:AR33" ca="1" si="5">INT(RAND()*5)</f>
+        <f t="shared" ref="AR22:AR31" ca="1" si="7">INT(RAND()*5)</f>
         <v>4</v>
       </c>
     </row>
@@ -15237,22 +15467,22 @@
         <v>18</v>
       </c>
       <c r="AM23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="AP23">
         <v>18</v>
       </c>
       <c r="AQ23">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -15270,23 +15500,23 @@
         <v>19</v>
       </c>
       <c r="AM24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="AP24">
         <v>19</v>
       </c>
       <c r="AQ24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="34:44" x14ac:dyDescent="0.25">
@@ -15303,23 +15533,23 @@
         <v>20</v>
       </c>
       <c r="AM25">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="AP25">
         <v>20</v>
       </c>
       <c r="AQ25">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="34:44" x14ac:dyDescent="0.25">
@@ -15336,22 +15566,22 @@
         <v>21</v>
       </c>
       <c r="AM26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="AN26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="AP26">
         <v>21</v>
       </c>
       <c r="AQ26">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="AR26">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -15369,23 +15599,23 @@
         <v>22</v>
       </c>
       <c r="AM27">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="AP27">
         <v>22</v>
       </c>
       <c r="AQ27">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="34:44" x14ac:dyDescent="0.25">
@@ -15402,23 +15632,23 @@
         <v>23</v>
       </c>
       <c r="AM28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="AP28">
         <v>23</v>
       </c>
       <c r="AQ28">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="AR28">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="34:44" x14ac:dyDescent="0.25">
@@ -15436,22 +15666,22 @@
       </c>
       <c r="AM29">
         <f ca="1">INT(RAND()*5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AP29">
         <v>24</v>
       </c>
       <c r="AQ29">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="34:44" x14ac:dyDescent="0.25">
@@ -15468,8 +15698,8 @@
         <v>25</v>
       </c>
       <c r="AM30">
-        <f t="shared" ref="AM30:AM54" ca="1" si="6">INT(RAND()*5)</f>
-        <v>3</v>
+        <f t="shared" ref="AM30:AM54" ca="1" si="8">INT(RAND()*5)</f>
+        <v>4</v>
       </c>
       <c r="AN30">
         <f ca="1">INT(RAND()*2)</f>
@@ -15479,12 +15709,12 @@
         <v>25</v>
       </c>
       <c r="AQ30">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="AR30">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
       </c>
     </row>
     <row r="31" spans="34:44" x14ac:dyDescent="0.25">
@@ -15501,23 +15731,23 @@
         <v>26</v>
       </c>
       <c r="AM31">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <f t="shared" ref="AN31:AN41" ca="1" si="7">INT(RAND()*2)</f>
+        <f t="shared" ref="AN31:AN41" ca="1" si="9">INT(RAND()*2)</f>
         <v>1</v>
       </c>
       <c r="AP31">
         <v>26</v>
       </c>
       <c r="AQ31">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="34:44" x14ac:dyDescent="0.25">
@@ -15534,479 +15764,581 @@
         <v>27</v>
       </c>
       <c r="AM32">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AP32">
         <v>27</v>
       </c>
       <c r="AQ32">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AR32">
         <f ca="1">INT(RAND()*1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL33">
         <v>28</v>
       </c>
       <c r="AM33">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>28</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" ref="AR33:AR44" ca="1" si="10">INT(RAND()*1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL34">
+        <v>29</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>29</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL35">
+        <v>30</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>30</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL36">
+        <v>31</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>31</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL37">
+        <v>32</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>32</v>
+      </c>
+      <c r="AQ37">
         <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
-      <c r="AN33">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AR37">
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="AP33">
-        <v>28</v>
-      </c>
-      <c r="AQ33">
-        <f t="shared" ca="1" si="4"/>
+    </row>
+    <row r="38" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL38">
+        <v>33</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
-      <c r="AR33">
-        <f t="shared" ref="AR33:AR45" ca="1" si="8">INT(RAND()*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL34">
-        <v>29</v>
-      </c>
-      <c r="AM34">
+      <c r="AP38">
+        <v>33</v>
+      </c>
+      <c r="AQ38">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="AN34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AR38">
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="AP34">
-        <v>29</v>
-      </c>
-      <c r="AQ34">
-        <f t="shared" ca="1" si="4"/>
+    </row>
+    <row r="39" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL39">
+        <v>34</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="AR34">
+      <c r="AN39">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>34</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL40">
+        <v>35</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>35</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:44" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="AL41">
+        <v>36</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>36</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="AL42">
+        <v>37</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>37</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL43">
+        <v>38</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>38</v>
+      </c>
+      <c r="AQ43">
+        <f ca="1">INT(RAND()*10)</f>
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL44">
+        <v>39</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>39</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" ref="AQ44:AQ49" ca="1" si="11">INT(RAND()*5)</f>
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL45">
+        <v>40</v>
+      </c>
+      <c r="AM45">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>40</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <f ca="1">INT(RAND()*6)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL35">
-        <v>30</v>
-      </c>
-      <c r="AM35">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN35">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AP35">
-        <v>30</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR35">
+    <row r="46" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F46" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL46">
+        <v>41</v>
+      </c>
+      <c r="AM46">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>41</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" ref="AR46:AR58" ca="1" si="12">INT(RAND()*6)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="36" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL36">
-        <v>31</v>
-      </c>
-      <c r="AM36">
-        <f t="shared" ca="1" si="6"/>
+    <row r="47" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL47">
+        <v>42</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>42</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
-      <c r="AN36">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AR47">
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP36">
-        <v>31</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" ca="1" si="4"/>
+    </row>
+    <row r="48" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL48">
+        <v>43</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>43</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL49">
+        <v>44</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="AR36">
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>44</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL50">
+        <v>45</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>45</v>
+      </c>
+      <c r="AQ50">
+        <f ca="1">INT(RAND()*10)</f>
+        <v>7</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL51">
+        <v>46</v>
+      </c>
+      <c r="AM51">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>46</v>
+      </c>
+      <c r="AQ51">
+        <f t="shared" ref="AQ51:AQ59" ca="1" si="13">INT(RAND()*10)</f>
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL52">
+        <v>47</v>
+      </c>
+      <c r="AM52">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL37">
-        <v>32</v>
-      </c>
-      <c r="AM37">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN37">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>32</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL38">
-        <v>33</v>
-      </c>
-      <c r="AM38">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AN38">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AP38">
-        <v>33</v>
-      </c>
-      <c r="AQ38">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL39">
-        <v>34</v>
-      </c>
-      <c r="AM39">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AN39">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>34</v>
-      </c>
-      <c r="AQ39">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR39">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL40">
-        <v>35</v>
-      </c>
-      <c r="AM40">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN40">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>35</v>
-      </c>
-      <c r="AQ40">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR40">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL41">
-        <v>36</v>
-      </c>
-      <c r="AM41">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN41">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>36</v>
-      </c>
-      <c r="AQ41">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR41">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL42">
-        <v>37</v>
-      </c>
-      <c r="AM42">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>37</v>
-      </c>
-      <c r="AQ42">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AR42">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL43">
-        <v>38</v>
-      </c>
-      <c r="AM43">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>38</v>
-      </c>
-      <c r="AQ43">
-        <f ca="1">INT(RAND()*10)</f>
-        <v>4</v>
-      </c>
-      <c r="AR43">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL44">
-        <v>39</v>
-      </c>
-      <c r="AM44">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>39</v>
-      </c>
-      <c r="AQ44">
-        <f t="shared" ref="AQ30:AQ54" ca="1" si="9">INT(RAND()*5)</f>
-        <v>4</v>
-      </c>
-      <c r="AR44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL45">
-        <v>40</v>
-      </c>
-      <c r="AM45">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>40</v>
-      </c>
-      <c r="AQ45">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AR45">
-        <f ca="1">INT(RAND()*6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL46">
-        <v>41</v>
-      </c>
-      <c r="AM46">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>41</v>
-      </c>
-      <c r="AQ46">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AR46">
-        <f t="shared" ref="AR46:AR59" ca="1" si="10">INT(RAND()*6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL47">
-        <v>42</v>
-      </c>
-      <c r="AM47">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>42</v>
-      </c>
-      <c r="AQ47">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AR47">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL48">
-        <v>43</v>
-      </c>
-      <c r="AM48">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>43</v>
-      </c>
-      <c r="AQ48">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL49">
-        <v>44</v>
-      </c>
-      <c r="AM49">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>44</v>
-      </c>
-      <c r="AQ49">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AR49">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL50">
-        <v>45</v>
-      </c>
-      <c r="AM50">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>45</v>
-      </c>
-      <c r="AQ50">
-        <f ca="1">INT(RAND()*10)</f>
-        <v>2</v>
-      </c>
-      <c r="AR50">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL51">
-        <v>46</v>
-      </c>
-      <c r="AM51">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>46</v>
-      </c>
-      <c r="AQ51">
-        <f t="shared" ref="AQ51:AQ60" ca="1" si="11">INT(RAND()*10)</f>
-        <v>2</v>
-      </c>
-      <c r="AR51">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="38:44" x14ac:dyDescent="0.25">
-      <c r="AL52">
-        <v>47</v>
-      </c>
-      <c r="AM52">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
       <c r="AN52">
         <v>0</v>
       </c>
@@ -16014,21 +16346,24 @@
         <v>47</v>
       </c>
       <c r="AQ52">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" ca="1" si="12"/>
         <v>5</v>
       </c>
-      <c r="AR52">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="53" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F53" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="AL53">
         <v>48</v>
       </c>
       <c r="AM53">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -16037,21 +16372,24 @@
         <v>48</v>
       </c>
       <c r="AQ53">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
       </c>
       <c r="AR53">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="54" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F54" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="AL54">
         <v>49</v>
       </c>
       <c r="AM54">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -16060,21 +16398,24 @@
         <v>49</v>
       </c>
       <c r="AQ54">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="AR54">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F55" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="AL55">
         <v>50</v>
       </c>
       <c r="AM55">
-        <f t="shared" ref="AM55:AM68" ca="1" si="12">INT(RAND()*10)</f>
-        <v>1</v>
+        <f t="shared" ref="AM55:AM68" ca="1" si="14">INT(RAND()*10)</f>
+        <v>6</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -16083,21 +16424,24 @@
         <v>50</v>
       </c>
       <c r="AQ55">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="AR55">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="56" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F56" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="AL56">
         <v>51</v>
       </c>
       <c r="AM56">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -16106,21 +16450,24 @@
         <v>51</v>
       </c>
       <c r="AQ56">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
       </c>
       <c r="AR56">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
     </row>
-    <row r="57" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F57" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="AL57">
         <v>52</v>
       </c>
       <c r="AM57">
-        <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -16129,21 +16476,24 @@
         <v>52</v>
       </c>
       <c r="AQ57">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
       <c r="AR57">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F58" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="AL58">
         <v>53</v>
       </c>
       <c r="AM58">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -16152,20 +16502,20 @@
         <v>53</v>
       </c>
       <c r="AQ58">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="AR58">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="59" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL59">
         <v>54</v>
       </c>
       <c r="AM59">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="AN59">
@@ -16175,21 +16525,21 @@
         <v>54</v>
       </c>
       <c r="AQ59">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="AR59">
         <f ca="1">INT(RAND()*2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL60">
         <v>55</v>
       </c>
       <c r="AM60">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -16202,17 +16552,17 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <f t="shared" ref="AR60:AR68" ca="1" si="13">INT(RAND()*2)</f>
-        <v>1</v>
+        <f t="shared" ref="AR60:AR68" ca="1" si="15">INT(RAND()*2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL61">
         <v>56</v>
       </c>
       <c r="AM61">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -16221,21 +16571,21 @@
         <v>56</v>
       </c>
       <c r="AQ61">
-        <f t="shared" ref="AQ61:AQ68" ca="1" si="14">INT(RAND()*2)</f>
+        <f t="shared" ref="AQ61:AQ68" ca="1" si="16">INT(RAND()*2)</f>
         <v>1</v>
       </c>
       <c r="AR61">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL62">
         <v>57</v>
       </c>
       <c r="AM62">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -16244,21 +16594,21 @@
         <v>57</v>
       </c>
       <c r="AQ62">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AR62">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL63">
         <v>58</v>
       </c>
       <c r="AM63">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -16267,21 +16617,21 @@
         <v>58</v>
       </c>
       <c r="AQ63">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AR63">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="38:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:44" x14ac:dyDescent="0.25">
       <c r="AL64">
         <v>59</v>
       </c>
       <c r="AM64">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -16290,12 +16640,12 @@
         <v>59</v>
       </c>
       <c r="AQ64">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AR64">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="38:44" x14ac:dyDescent="0.25">
@@ -16303,8 +16653,8 @@
         <v>60</v>
       </c>
       <c r="AM65">
-        <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -16313,11 +16663,11 @@
         <v>60</v>
       </c>
       <c r="AQ65">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AR65">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16326,8 +16676,8 @@
         <v>61</v>
       </c>
       <c r="AM66">
-        <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -16336,12 +16686,12 @@
         <v>61</v>
       </c>
       <c r="AQ66">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
-      </c>
-      <c r="AR66">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
       </c>
     </row>
     <row r="67" spans="38:44" x14ac:dyDescent="0.25">
@@ -16349,8 +16699,8 @@
         <v>62</v>
       </c>
       <c r="AM67">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -16359,12 +16709,12 @@
         <v>62</v>
       </c>
       <c r="AQ67">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AR67">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="38:44" x14ac:dyDescent="0.25">
@@ -16372,8 +16722,8 @@
         <v>63</v>
       </c>
       <c r="AM68">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -16382,22 +16732,27 @@
         <v>63</v>
       </c>
       <c r="AQ68">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AR68">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="N1:X1"/>
     <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="R41:U41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ppt/simple example.xlsx
+++ b/ppt/simple example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryYang\Desktop\Github\NTUIIE-Reserch\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0D3B6-474F-49DB-83FC-D885042ACFF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB6AD1-8215-4F95-8D49-28F19BEDC16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t>Animal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -181,6 +181,102 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>x.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.3</t>
+  </si>
+  <si>
+    <t>x.4</t>
+  </si>
+  <si>
+    <t>x.5</t>
+  </si>
+  <si>
+    <t>x.6</t>
+  </si>
+  <si>
+    <t>x.7</t>
+  </si>
+  <si>
+    <t>x.8</t>
+  </si>
+  <si>
+    <t>x.9</t>
+  </si>
+  <si>
+    <t>x.10</t>
+  </si>
+  <si>
+    <t>y.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>z.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>z.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y.3</t>
+  </si>
+  <si>
+    <t>y.4</t>
+  </si>
+  <si>
+    <t>y.5</t>
+  </si>
+  <si>
+    <t>y.6</t>
+  </si>
+  <si>
+    <t>y.7</t>
+  </si>
+  <si>
+    <t>y.8</t>
+  </si>
+  <si>
+    <t>y.9</t>
+  </si>
+  <si>
+    <t>z.3</t>
+  </si>
+  <si>
+    <t>z.4</t>
+  </si>
+  <si>
+    <t>z.5</t>
+  </si>
+  <si>
+    <t>z.6</t>
+  </si>
+  <si>
+    <t>z.7</t>
+  </si>
+  <si>
+    <t>z.8</t>
+  </si>
+  <si>
+    <t>z.9</t>
+  </si>
+  <si>
+    <t>y.10</t>
+  </si>
+  <si>
+    <t>z.10</t>
   </si>
 </sst>
 </file>
@@ -412,15 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -468,6 +555,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1638,10 +1734,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -1650,13 +1746,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1668,34 +1764,34 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2</c:v>
@@ -1707,124 +1803,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +2163,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2076,31 +2172,31 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
@@ -2109,43 +2205,43 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
@@ -2154,28 +2250,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -2753,94 +2849,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -2849,82 +2945,82 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1</c:v>
@@ -2936,10 +3032,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -3185,19 +3281,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -3206,7 +3302,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -3218,52 +3314,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -3305,40 +3401,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1</c:v>
@@ -3347,34 +3443,34 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14289,8 +14385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6FDEF-34B0-40EE-B0E5-0931DE7ABBA0}">
   <dimension ref="B1:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F58"/>
+    <sheetView tabSelected="1" topLeftCell="F51" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O63" sqref="F63:O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14299,45 +14395,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="N1" s="2" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Z1" s="3" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Z1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
     </row>
     <row r="2" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -14560,18 +14656,18 @@
       </c>
       <c r="AN5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
@@ -14667,7 +14763,7 @@
       </c>
       <c r="AM6">
         <f t="shared" ref="AM6:AM28" ca="1" si="2">INT(RAND()*3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <f t="shared" ref="AN6:AN29" ca="1" si="3">INT(RAND()*5)</f>
@@ -14678,11 +14774,11 @@
       </c>
       <c r="AQ6">
         <f t="shared" ref="AQ6:AQ20" ca="1" si="4">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <f t="shared" ref="AR6:AR20" ca="1" si="5">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.25">
@@ -14778,7 +14874,7 @@
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="3"/>
@@ -14789,7 +14885,7 @@
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="5"/>
@@ -14893,18 +14989,18 @@
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP8">
         <v>3</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.25">
@@ -14995,7 +15091,7 @@
       </c>
       <c r="AN9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP9">
         <v>4</v>
@@ -15006,7 +15102,7 @@
       </c>
       <c r="AR9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.25">
@@ -15093,18 +15189,18 @@
       </c>
       <c r="AM10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN10">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>5</v>
       </c>
       <c r="AQ10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR10">
         <f t="shared" ca="1" si="5"/>
@@ -15130,14 +15226,14 @@
       </c>
       <c r="AN11">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP11">
         <v>6</v>
       </c>
       <c r="AQ11">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR11">
         <f t="shared" ca="1" si="5"/>
@@ -15159,7 +15255,7 @@
       </c>
       <c r="AM12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <f t="shared" ca="1" si="3"/>
@@ -15170,11 +15266,11 @@
       </c>
       <c r="AQ12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.25">
@@ -15187,14 +15283,14 @@
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
         <v>8</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="5"/>
@@ -15211,14 +15307,14 @@
       </c>
       <c r="AN14">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <v>9</v>
       </c>
       <c r="AQ14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <f t="shared" ca="1" si="5"/>
@@ -15235,7 +15331,7 @@
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
         <v>10</v>
@@ -15255,22 +15351,22 @@
       </c>
       <c r="AM16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP16">
         <v>11</v>
       </c>
       <c r="AQ16">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="34:44" x14ac:dyDescent="0.25">
@@ -15279,7 +15375,7 @@
       </c>
       <c r="AM17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
         <f t="shared" ca="1" si="3"/>
@@ -15290,11 +15386,11 @@
       </c>
       <c r="AQ17">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR17">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="34:44" x14ac:dyDescent="0.25">
@@ -15303,7 +15399,7 @@
       </c>
       <c r="AM18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="3"/>
@@ -15314,7 +15410,7 @@
       </c>
       <c r="AQ18">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <f t="shared" ca="1" si="5"/>
@@ -15336,11 +15432,11 @@
       </c>
       <c r="AM19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN19">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP19">
         <v>14</v>
@@ -15351,7 +15447,7 @@
       </c>
       <c r="AR19">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="34:44" x14ac:dyDescent="0.25">
@@ -15369,7 +15465,7 @@
       </c>
       <c r="AM20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN20">
         <f t="shared" ca="1" si="3"/>
@@ -15380,11 +15476,11 @@
       </c>
       <c r="AQ20">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR20">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="34:44" x14ac:dyDescent="0.25">
@@ -15402,18 +15498,18 @@
       </c>
       <c r="AM21">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP21">
         <v>16</v>
       </c>
       <c r="AQ21">
         <f ca="1">INT(RAND()*3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21">
         <f ca="1">INT(RAND()*5)</f>
@@ -15435,11 +15531,11 @@
       </c>
       <c r="AM22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
         <v>17</v>
@@ -15450,7 +15546,7 @@
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR31" ca="1" si="7">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="34:44" x14ac:dyDescent="0.25">
@@ -15479,11 +15575,11 @@
       </c>
       <c r="AQ23">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="34:44" x14ac:dyDescent="0.25">
@@ -15501,22 +15597,22 @@
       </c>
       <c r="AM24">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN24">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP24">
         <v>19</v>
       </c>
       <c r="AQ24">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="34:44" x14ac:dyDescent="0.25">
@@ -15534,22 +15630,22 @@
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP25">
         <v>20</v>
       </c>
       <c r="AQ25">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="34:44" x14ac:dyDescent="0.25">
@@ -15571,18 +15667,18 @@
       </c>
       <c r="AN26">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP26">
         <v>21</v>
       </c>
       <c r="AQ26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="34:44" x14ac:dyDescent="0.25">
@@ -15604,18 +15700,18 @@
       </c>
       <c r="AN27">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <v>22</v>
       </c>
       <c r="AQ27">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="34:44" x14ac:dyDescent="0.25">
@@ -15637,18 +15733,18 @@
       </c>
       <c r="AN28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP28">
         <v>23</v>
       </c>
       <c r="AQ28">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="34:44" x14ac:dyDescent="0.25">
@@ -15666,11 +15762,11 @@
       </c>
       <c r="AM29">
         <f ca="1">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN29">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29">
         <v>24</v>
@@ -15681,7 +15777,7 @@
       </c>
       <c r="AR29">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="34:44" x14ac:dyDescent="0.25">
@@ -15699,7 +15795,7 @@
       </c>
       <c r="AM30">
         <f t="shared" ref="AM30:AM54" ca="1" si="8">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN30">
         <f ca="1">INT(RAND()*2)</f>
@@ -15710,11 +15806,11 @@
       </c>
       <c r="AQ30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR30">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="34:44" x14ac:dyDescent="0.25">
@@ -15732,11 +15828,11 @@
       </c>
       <c r="AM31">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN31">
         <f t="shared" ref="AN31:AN41" ca="1" si="9">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
         <v>26</v>
@@ -15747,7 +15843,7 @@
       </c>
       <c r="AR31">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="34:44" x14ac:dyDescent="0.25">
@@ -15765,7 +15861,7 @@
       </c>
       <c r="AM32">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN32">
         <f t="shared" ca="1" si="9"/>
@@ -15776,7 +15872,7 @@
       </c>
       <c r="AQ32">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <f ca="1">INT(RAND()*1)</f>
@@ -15789,7 +15885,7 @@
       </c>
       <c r="AM33">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN33">
         <f t="shared" ca="1" si="9"/>
@@ -15800,7 +15896,7 @@
       </c>
       <c r="AQ33">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33">
         <f t="shared" ref="AR33:AR44" ca="1" si="10">INT(RAND()*1)</f>
@@ -15813,18 +15909,18 @@
       </c>
       <c r="AM34">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
         <v>29</v>
       </c>
       <c r="AQ34">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34">
         <f t="shared" ca="1" si="10"/>
@@ -15837,11 +15933,11 @@
       </c>
       <c r="AM35">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN35">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>30</v>
@@ -15861,11 +15957,11 @@
       </c>
       <c r="AM36">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN36">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>31</v>
@@ -15885,18 +15981,18 @@
       </c>
       <c r="AM37">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN37">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
         <v>32</v>
       </c>
       <c r="AQ37">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR37">
         <f t="shared" ca="1" si="10"/>
@@ -15909,7 +16005,7 @@
       </c>
       <c r="AM38">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN38">
         <f t="shared" ca="1" si="9"/>
@@ -15920,7 +16016,7 @@
       </c>
       <c r="AQ38">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR38">
         <f t="shared" ca="1" si="10"/>
@@ -15933,18 +16029,18 @@
       </c>
       <c r="AM39">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>34</v>
       </c>
       <c r="AQ39">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR39">
         <f t="shared" ca="1" si="10"/>
@@ -15952,52 +16048,52 @@
       </c>
     </row>
     <row r="40" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N40" s="12" t="s">
+      <c r="N40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="13" t="s">
+      <c r="O40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P40" s="14" t="s">
+      <c r="P40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S40" s="17" t="s">
+      <c r="S40" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="T40" s="18" t="s">
+      <c r="T40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="U40" s="19" t="s">
+      <c r="U40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="AL40">
@@ -16016,7 +16112,7 @@
       </c>
       <c r="AQ40">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <f t="shared" ca="1" si="10"/>
@@ -16053,11 +16149,11 @@
       </c>
       <c r="AM41">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN41">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
         <v>36</v>
@@ -16077,7 +16173,7 @@
       </c>
       <c r="AM42">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -16087,7 +16183,7 @@
       </c>
       <c r="AQ42">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <f t="shared" ca="1" si="10"/>
@@ -16095,7 +16191,7 @@
       </c>
     </row>
     <row r="43" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL43">
@@ -16113,7 +16209,7 @@
       </c>
       <c r="AQ43">
         <f ca="1">INT(RAND()*10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR43">
         <f t="shared" ca="1" si="10"/>
@@ -16121,7 +16217,7 @@
       </c>
     </row>
     <row r="44" spans="6:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AL44">
@@ -16129,7 +16225,7 @@
       </c>
       <c r="AM44">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -16139,7 +16235,7 @@
       </c>
       <c r="AQ44">
         <f t="shared" ref="AQ44:AQ49" ca="1" si="11">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <f t="shared" ca="1" si="10"/>
@@ -16147,7 +16243,7 @@
       </c>
     </row>
     <row r="45" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AL45">
@@ -16155,7 +16251,7 @@
       </c>
       <c r="AM45">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -16165,15 +16261,15 @@
       </c>
       <c r="AQ45">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <f ca="1">INT(RAND()*6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>33</v>
       </c>
       <c r="AL46">
@@ -16181,7 +16277,7 @@
       </c>
       <c r="AM46">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -16191,15 +16287,15 @@
       </c>
       <c r="AQ46">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <f t="shared" ref="AR46:AR58" ca="1" si="12">INT(RAND()*6)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>34</v>
       </c>
       <c r="AL47">
@@ -16207,7 +16303,7 @@
       </c>
       <c r="AM47">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -16217,15 +16313,15 @@
       </c>
       <c r="AQ47">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR47">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AL48">
@@ -16233,7 +16329,7 @@
       </c>
       <c r="AM48">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -16243,7 +16339,7 @@
       </c>
       <c r="AQ48">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR48">
         <f t="shared" ca="1" si="12"/>
@@ -16251,7 +16347,7 @@
       </c>
     </row>
     <row r="49" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AL49">
@@ -16259,7 +16355,7 @@
       </c>
       <c r="AM49">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -16269,15 +16365,15 @@
       </c>
       <c r="AQ49">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR49">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="8" t="s">
         <v>37</v>
       </c>
       <c r="AL50">
@@ -16285,7 +16381,7 @@
       </c>
       <c r="AM50">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -16295,15 +16391,15 @@
       </c>
       <c r="AQ50">
         <f ca="1">INT(RAND()*10)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR50">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AL51">
@@ -16321,15 +16417,15 @@
       </c>
       <c r="AQ51">
         <f t="shared" ref="AQ51:AQ59" ca="1" si="13">INT(RAND()*10)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR51">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="10" t="s">
         <v>35</v>
       </c>
       <c r="AL52">
@@ -16337,7 +16433,7 @@
       </c>
       <c r="AM52">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -16351,11 +16447,11 @@
       </c>
       <c r="AR52">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AL53">
@@ -16363,7 +16459,7 @@
       </c>
       <c r="AM53">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -16373,15 +16469,15 @@
       </c>
       <c r="AQ53">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AR53">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>37</v>
       </c>
       <c r="AL54">
@@ -16389,7 +16485,7 @@
       </c>
       <c r="AM54">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -16399,15 +16495,15 @@
       </c>
       <c r="AQ54">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR54">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="13" t="s">
         <v>34</v>
       </c>
       <c r="AL55">
@@ -16415,7 +16511,7 @@
       </c>
       <c r="AM55">
         <f t="shared" ref="AM55:AM68" ca="1" si="14">INT(RAND()*10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -16425,15 +16521,15 @@
       </c>
       <c r="AQ55">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AR55">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AL56">
@@ -16441,7 +16537,7 @@
       </c>
       <c r="AM56">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -16451,15 +16547,15 @@
       </c>
       <c r="AQ56">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR56">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AL57">
@@ -16467,7 +16563,7 @@
       </c>
       <c r="AM57">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -16477,7 +16573,7 @@
       </c>
       <c r="AQ57">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR57">
         <f t="shared" ca="1" si="12"/>
@@ -16485,7 +16581,7 @@
       </c>
     </row>
     <row r="58" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="16" t="s">
         <v>37</v>
       </c>
       <c r="AL58">
@@ -16493,7 +16589,7 @@
       </c>
       <c r="AM58">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -16503,7 +16599,7 @@
       </c>
       <c r="AQ58">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AR58">
         <f t="shared" ca="1" si="12"/>
@@ -16516,7 +16612,7 @@
       </c>
       <c r="AM59">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -16526,11 +16622,11 @@
       </c>
       <c r="AQ59">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="6:44" x14ac:dyDescent="0.25">
@@ -16539,7 +16635,7 @@
       </c>
       <c r="AM60">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -16549,7 +16645,7 @@
       </c>
       <c r="AQ60">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <f t="shared" ref="AR60:AR68" ca="1" si="15">INT(RAND()*2)</f>
@@ -16557,12 +16653,42 @@
       </c>
     </row>
     <row r="61" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" t="s">
+        <v>47</v>
+      </c>
+      <c r="L61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" t="s">
+        <v>49</v>
+      </c>
+      <c r="N61" t="s">
+        <v>50</v>
+      </c>
+      <c r="O61" t="s">
+        <v>51</v>
+      </c>
       <c r="AL61">
         <v>56</v>
       </c>
       <c r="AM61">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -16576,16 +16702,46 @@
       </c>
       <c r="AR61">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" t="s">
+        <v>61</v>
+      </c>
+      <c r="N62" t="s">
+        <v>62</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
       <c r="AL62">
         <v>57</v>
       </c>
       <c r="AM62">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -16595,14 +16751,44 @@
       </c>
       <c r="AQ62">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:44" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" t="s">
+        <v>66</v>
+      </c>
+      <c r="L63" t="s">
+        <v>67</v>
+      </c>
+      <c r="M63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N63" t="s">
+        <v>69</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
       <c r="AL63">
         <v>58</v>
       </c>
@@ -16622,7 +16808,7 @@
       </c>
       <c r="AR63">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="6:44" x14ac:dyDescent="0.25">
@@ -16631,7 +16817,7 @@
       </c>
       <c r="AM64">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -16645,7 +16831,7 @@
       </c>
       <c r="AR64">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="38:44" x14ac:dyDescent="0.25">
@@ -16654,7 +16840,7 @@
       </c>
       <c r="AM65">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -16677,7 +16863,7 @@
       </c>
       <c r="AM66">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -16687,11 +16873,11 @@
       </c>
       <c r="AQ66">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR66">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="38:44" x14ac:dyDescent="0.25">
@@ -16700,7 +16886,7 @@
       </c>
       <c r="AM67">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -16710,11 +16896,11 @@
       </c>
       <c r="AQ67">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="38:44" x14ac:dyDescent="0.25">
@@ -16723,7 +16909,7 @@
       </c>
       <c r="AM68">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -16737,7 +16923,7 @@
       </c>
       <c r="AR68">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ppt/simple example.xlsx
+++ b/ppt/simple example.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryYang\Desktop\Github\NTUIIE-Reserch\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB6AD1-8215-4F95-8D49-28F19BEDC16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD8C252-AF3C-4854-8795-A259338251FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>Animal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -278,12 +279,77 @@
   <si>
     <t>z.10</t>
   </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuna</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Toad</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +400,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -504,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,6 +648,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -955,6 +1042,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1731,7 +1874,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1743,106 +1886,106 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1</c:v>
@@ -1851,76 +1994,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,61 +2306,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -2226,19 +2369,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -2247,31 +2390,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -2855,52 +2998,52 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
@@ -2915,13 +3058,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2933,22 +3076,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -2957,76 +3100,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="41">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="54">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -3281,13 +3424,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3299,19 +3442,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -3326,22 +3469,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
@@ -3350,16 +3493,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -3401,76 +3544,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3994,6 +4137,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4439,6 +4640,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4585,7 +4844,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>PC</a:t>
+              <a:t>Group</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
@@ -4882,6 +5141,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4996,8 +5313,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Group</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>PC 2</a:t>
+              <a:t> 2</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -5290,6 +5613,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5404,8 +5785,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Group</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>PC 3</a:t>
+              <a:t> 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5697,6 +6084,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>counts</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5843,7 +6288,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Sorted PC1</a:t>
+              <a:t>Sorted </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Group 1</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -6179,37 +6630,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6282,7 +6702,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Sorted PC2</a:t>
+              <a:t>Sorted </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Group </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6617,37 +7047,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6720,8 +7119,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Sorted PC3</a:t>
+              <a:t>Sorted </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Group 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -13977,16 +14383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>17931</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>118785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>82925</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>246527</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>183778</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14385,8 +14791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6FDEF-34B0-40EE-B0E5-0931DE7ABBA0}">
   <dimension ref="B1:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F51" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O63" sqref="F63:O63"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14652,11 +15058,11 @@
       </c>
       <c r="AM5">
         <f ca="1">INT(RAND()*3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -14667,7 +15073,7 @@
       </c>
       <c r="AR5">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
@@ -14767,7 +15173,7 @@
       </c>
       <c r="AN6">
         <f t="shared" ref="AN6:AN29" ca="1" si="3">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP6">
         <v>1</v>
@@ -14878,18 +15284,18 @@
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <v>2</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.25">
@@ -14989,7 +15395,7 @@
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>3</v>
@@ -15087,18 +15493,18 @@
       </c>
       <c r="AM9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>4</v>
       </c>
       <c r="AQ9">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <f t="shared" ca="1" si="5"/>
@@ -15189,11 +15595,11 @@
       </c>
       <c r="AM10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP10">
         <v>5</v>
@@ -15222,7 +15628,7 @@
       </c>
       <c r="AM11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN11">
         <f t="shared" ca="1" si="3"/>
@@ -15233,11 +15639,11 @@
       </c>
       <c r="AQ11">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.25">
@@ -15259,14 +15665,14 @@
       </c>
       <c r="AN12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP12">
         <v>7</v>
       </c>
       <c r="AQ12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <f t="shared" ca="1" si="5"/>
@@ -15279,22 +15685,22 @@
       </c>
       <c r="AM13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP13">
         <v>8</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.25">
@@ -15307,14 +15713,14 @@
       </c>
       <c r="AN14">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
         <v>9</v>
       </c>
       <c r="AQ14">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR14">
         <f t="shared" ca="1" si="5"/>
@@ -15327,22 +15733,22 @@
       </c>
       <c r="AM15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>10</v>
       </c>
       <c r="AQ15">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.25">
@@ -15351,7 +15757,7 @@
       </c>
       <c r="AM16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="3"/>
@@ -15362,7 +15768,7 @@
       </c>
       <c r="AQ16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <f t="shared" ca="1" si="5"/>
@@ -15375,18 +15781,18 @@
       </c>
       <c r="AM17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP17">
         <v>12</v>
       </c>
       <c r="AQ17">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR17">
         <f t="shared" ca="1" si="5"/>
@@ -15399,18 +15805,18 @@
       </c>
       <c r="AM18">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>13</v>
       </c>
       <c r="AQ18">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR18">
         <f t="shared" ca="1" si="5"/>
@@ -15432,18 +15838,18 @@
       </c>
       <c r="AM19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP19">
         <v>14</v>
       </c>
       <c r="AQ19">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <f t="shared" ca="1" si="5"/>
@@ -15465,22 +15871,22 @@
       </c>
       <c r="AM20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>15</v>
       </c>
       <c r="AQ20">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="34:44" x14ac:dyDescent="0.25">
@@ -15498,22 +15904,22 @@
       </c>
       <c r="AM21">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN21">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP21">
         <v>16</v>
       </c>
       <c r="AQ21">
         <f ca="1">INT(RAND()*3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="34:44" x14ac:dyDescent="0.25">
@@ -15531,22 +15937,22 @@
       </c>
       <c r="AM22">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
         <v>17</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ42" ca="1" si="6">INT(RAND()*3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR31" ca="1" si="7">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="34:44" x14ac:dyDescent="0.25">
@@ -15564,11 +15970,11 @@
       </c>
       <c r="AM23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP23">
         <v>18</v>
@@ -15597,7 +16003,7 @@
       </c>
       <c r="AM24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
         <f t="shared" ca="1" si="3"/>
@@ -15612,7 +16018,7 @@
       </c>
       <c r="AR24">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="34:44" x14ac:dyDescent="0.25">
@@ -15630,7 +16036,7 @@
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="3"/>
@@ -15645,7 +16051,7 @@
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="34:44" x14ac:dyDescent="0.25">
@@ -15663,11 +16069,11 @@
       </c>
       <c r="AM26">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN26">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>21</v>
@@ -15696,18 +16102,18 @@
       </c>
       <c r="AM27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN27">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
         <v>22</v>
       </c>
       <c r="AQ27">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR27">
         <f t="shared" ca="1" si="7"/>
@@ -15729,22 +16135,22 @@
       </c>
       <c r="AM28">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN28">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP28">
         <v>23</v>
       </c>
       <c r="AQ28">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="34:44" x14ac:dyDescent="0.25">
@@ -15762,22 +16168,22 @@
       </c>
       <c r="AM29">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP29">
         <v>24</v>
       </c>
       <c r="AQ29">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="34:44" x14ac:dyDescent="0.25">
@@ -15799,7 +16205,7 @@
       </c>
       <c r="AN30">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
         <v>25</v>
@@ -15810,7 +16216,7 @@
       </c>
       <c r="AR30">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="34:44" x14ac:dyDescent="0.25">
@@ -15828,7 +16234,7 @@
       </c>
       <c r="AM31">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN31">
         <f t="shared" ref="AN31:AN41" ca="1" si="9">INT(RAND()*2)</f>
@@ -15843,7 +16249,7 @@
       </c>
       <c r="AR31">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="34:44" x14ac:dyDescent="0.25">
@@ -15861,7 +16267,7 @@
       </c>
       <c r="AM32">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN32">
         <f t="shared" ca="1" si="9"/>
@@ -15879,61 +16285,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL33">
         <v>28</v>
       </c>
       <c r="AM33">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN33">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP33">
         <v>28</v>
       </c>
       <c r="AQ33">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <f t="shared" ref="AR33:AR44" ca="1" si="10">INT(RAND()*1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL34">
         <v>29</v>
       </c>
       <c r="AM34">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34">
         <v>29</v>
       </c>
       <c r="AQ34">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL35">
         <v>30</v>
       </c>
       <c r="AM35">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN35">
         <f t="shared" ca="1" si="9"/>
@@ -15944,68 +16350,68 @@
       </c>
       <c r="AQ35">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL36">
         <v>31</v>
       </c>
       <c r="AM36">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN36">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>31</v>
       </c>
       <c r="AQ36">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL37">
         <v>32</v>
       </c>
       <c r="AM37">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN37">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37">
         <v>32</v>
       </c>
       <c r="AQ37">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL38">
         <v>33</v>
       </c>
       <c r="AM38">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN38">
         <f t="shared" ca="1" si="9"/>
@@ -16016,24 +16422,24 @@
       </c>
       <c r="AQ38">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:44" x14ac:dyDescent="0.25">
       <c r="AL39">
         <v>34</v>
       </c>
       <c r="AM39">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN39">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>34</v>
@@ -16047,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:44" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
@@ -16101,7 +16507,7 @@
       </c>
       <c r="AM40">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN40">
         <f t="shared" ca="1" si="9"/>
@@ -16119,7 +16525,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:44" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:44" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="F41" s="20" t="s">
         <v>38</v>
       </c>
@@ -16149,31 +16558,34 @@
       </c>
       <c r="AM41">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN41">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
         <v>36</v>
       </c>
       <c r="AQ41">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR41">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2</v>
+      </c>
       <c r="AL42">
         <v>37</v>
       </c>
       <c r="AM42">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -16190,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:44" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
         <v>30</v>
       </c>
@@ -16209,14 +16621,14 @@
       </c>
       <c r="AQ43">
         <f ca="1">INT(RAND()*10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR43">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="2" t="s">
         <v>31</v>
       </c>
@@ -16235,14 +16647,14 @@
       </c>
       <c r="AQ44">
         <f t="shared" ref="AQ44:AQ49" ca="1" si="11">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:44" x14ac:dyDescent="0.25">
       <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
@@ -16251,7 +16663,7 @@
       </c>
       <c r="AM45">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -16261,14 +16673,14 @@
       </c>
       <c r="AQ45">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR45">
         <f ca="1">INT(RAND()*6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:44" x14ac:dyDescent="0.25">
       <c r="F46" s="4" t="s">
         <v>33</v>
       </c>
@@ -16277,7 +16689,7 @@
       </c>
       <c r="AM46">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -16287,14 +16699,14 @@
       </c>
       <c r="AQ46">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <f t="shared" ref="AR46:AR58" ca="1" si="12">INT(RAND()*6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="47" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:44" x14ac:dyDescent="0.25">
       <c r="F47" s="5" t="s">
         <v>34</v>
       </c>
@@ -16303,7 +16715,7 @@
       </c>
       <c r="AM47">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -16313,14 +16725,14 @@
       </c>
       <c r="AQ47">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR47">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="48" spans="6:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:44" x14ac:dyDescent="0.25">
       <c r="F48" s="6" t="s">
         <v>35</v>
       </c>
@@ -16329,7 +16741,7 @@
       </c>
       <c r="AM48">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -16339,11 +16751,11 @@
       </c>
       <c r="AQ48">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR48">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="6:44" x14ac:dyDescent="0.25">
@@ -16355,7 +16767,7 @@
       </c>
       <c r="AM49">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -16369,7 +16781,7 @@
       </c>
       <c r="AR49">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="6:44" x14ac:dyDescent="0.25">
@@ -16381,7 +16793,7 @@
       </c>
       <c r="AM50">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -16391,11 +16803,11 @@
       </c>
       <c r="AQ50">
         <f ca="1">INT(RAND()*10)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="6:44" x14ac:dyDescent="0.25">
@@ -16407,7 +16819,7 @@
       </c>
       <c r="AM51">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -16417,7 +16829,7 @@
       </c>
       <c r="AQ51">
         <f t="shared" ref="AQ51:AQ59" ca="1" si="13">INT(RAND()*10)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR51">
         <f t="shared" ca="1" si="12"/>
@@ -16433,7 +16845,7 @@
       </c>
       <c r="AM52">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -16443,11 +16855,11 @@
       </c>
       <c r="AQ52">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR52">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="6:44" x14ac:dyDescent="0.25">
@@ -16469,11 +16881,11 @@
       </c>
       <c r="AQ53">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AR53">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="6:44" x14ac:dyDescent="0.25">
@@ -16485,7 +16897,7 @@
       </c>
       <c r="AM54">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -16495,11 +16907,11 @@
       </c>
       <c r="AQ54">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="6:44" x14ac:dyDescent="0.25">
@@ -16511,7 +16923,7 @@
       </c>
       <c r="AM55">
         <f t="shared" ref="AM55:AM68" ca="1" si="14">INT(RAND()*10)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -16521,11 +16933,11 @@
       </c>
       <c r="AQ55">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="6:44" x14ac:dyDescent="0.25">
@@ -16537,7 +16949,7 @@
       </c>
       <c r="AM56">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -16547,11 +16959,11 @@
       </c>
       <c r="AQ56">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR56">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="6:44" x14ac:dyDescent="0.25">
@@ -16563,7 +16975,7 @@
       </c>
       <c r="AM57">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -16573,7 +16985,7 @@
       </c>
       <c r="AQ57">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR57">
         <f t="shared" ca="1" si="12"/>
@@ -16599,11 +17011,11 @@
       </c>
       <c r="AQ58">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR58">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="6:44" x14ac:dyDescent="0.25">
@@ -16612,7 +17024,7 @@
       </c>
       <c r="AM59">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -16622,11 +17034,11 @@
       </c>
       <c r="AQ59">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AR59">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="6:44" x14ac:dyDescent="0.25">
@@ -16649,7 +17061,7 @@
       </c>
       <c r="AR60">
         <f t="shared" ref="AR60:AR68" ca="1" si="15">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="6:44" x14ac:dyDescent="0.25">
@@ -16688,7 +17100,7 @@
       </c>
       <c r="AM61">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -16698,11 +17110,11 @@
       </c>
       <c r="AQ61">
         <f t="shared" ref="AQ61:AQ68" ca="1" si="16">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR61">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:44" x14ac:dyDescent="0.25">
@@ -16741,7 +17153,7 @@
       </c>
       <c r="AM62">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -16751,7 +17163,7 @@
       </c>
       <c r="AQ62">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR62">
         <f t="shared" ca="1" si="15"/>
@@ -16794,7 +17206,7 @@
       </c>
       <c r="AM63">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -16808,7 +17220,7 @@
       </c>
       <c r="AR63">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="6:44" x14ac:dyDescent="0.25">
@@ -16817,7 +17229,7 @@
       </c>
       <c r="AM64">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -16827,11 +17239,11 @@
       </c>
       <c r="AQ64">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR64">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="38:44" x14ac:dyDescent="0.25">
@@ -16840,7 +17252,7 @@
       </c>
       <c r="AM65">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -16854,7 +17266,7 @@
       </c>
       <c r="AR65">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="38:44" x14ac:dyDescent="0.25">
@@ -16863,7 +17275,7 @@
       </c>
       <c r="AM66">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -16886,7 +17298,7 @@
       </c>
       <c r="AM67">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -16900,7 +17312,7 @@
       </c>
       <c r="AR67">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="38:44" x14ac:dyDescent="0.25">
@@ -16909,7 +17321,7 @@
       </c>
       <c r="AM68">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -16923,7 +17335,7 @@
       </c>
       <c r="AR68">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16941,4 +17353,3284 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52547F59-F4E5-421C-9107-A7FB7AFAB87A}">
+  <dimension ref="B2:AM40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:T40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="25">
+        <v>0</v>
+      </c>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0</v>
+      </c>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="25">
+        <v>1</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="T11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="25">
+        <v>1</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+    </row>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="S14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="P16" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>1</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R18" s="25">
+        <v>1</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="T18" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="S19" s="25">
+        <v>1</v>
+      </c>
+      <c r="T19" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="T20" s="25">
+        <v>1</v>
+      </c>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" t="s">
+        <v>88</v>
+      </c>
+      <c r="T22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="P23" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="R23" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S23" s="26">
+        <v>0</v>
+      </c>
+      <c r="T23" s="26">
+        <v>0</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="R24" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S24" s="26">
+        <v>0</v>
+      </c>
+      <c r="T24" s="26">
+        <v>0</v>
+      </c>
+      <c r="V24" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="W24" s="27">
+        <v>1</v>
+      </c>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="26">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="T25" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="V25" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="W25" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="X25" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S26" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="T26" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="V26" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="W26" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="X26" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+      <c r="P27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>0</v>
+      </c>
+      <c r="R27" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="S27" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="T27" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="V27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="X27" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Y27" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Z27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
+        <v>0</v>
+      </c>
+      <c r="K28" s="26">
+        <v>0</v>
+      </c>
+      <c r="L28" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="P28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0</v>
+      </c>
+      <c r="R28" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="S28" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="T28" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="V28" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W28" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="X28" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Y28" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Z28" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AA28" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="26">
+        <v>0</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="P29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="R29" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S29" s="26">
+        <v>0</v>
+      </c>
+      <c r="T29" s="26">
+        <v>0</v>
+      </c>
+      <c r="V29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W29" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="X29" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y29" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="26">
+        <v>1</v>
+      </c>
+      <c r="K30" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="P30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="26">
+        <v>0</v>
+      </c>
+      <c r="T30" s="26">
+        <v>0</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W30" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="X30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="AC30" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K31" s="26">
+        <v>1</v>
+      </c>
+      <c r="L31" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="M31" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="P31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="R31" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S31" s="26">
+        <v>0</v>
+      </c>
+      <c r="T31" s="26">
+        <v>0</v>
+      </c>
+      <c r="V31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W31" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="X31" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y31" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="AC31" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AD31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="L32" s="26">
+        <v>1</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="P32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="R32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="T32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="W32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y32" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AA32" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AB32" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AC32" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AD32" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AE32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="M33" s="26">
+        <v>1</v>
+      </c>
+      <c r="N33" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0</v>
+      </c>
+      <c r="P33" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>0</v>
+      </c>
+      <c r="R33" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="S33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="T33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="V33" s="26">
+        <v>0</v>
+      </c>
+      <c r="W33" s="26">
+        <v>0</v>
+      </c>
+      <c r="X33" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Y33" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Z33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AA33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AB33" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AD33" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AE33" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AF33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J34" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="M34" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="26">
+        <v>1</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0</v>
+      </c>
+      <c r="P34" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>0</v>
+      </c>
+      <c r="R34" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="S34" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="T34" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="V34" s="26">
+        <v>0</v>
+      </c>
+      <c r="W34" s="26">
+        <v>0</v>
+      </c>
+      <c r="X34" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Y34" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Z34" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AA34" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AB34" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AD34" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AE34" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AF34" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AG34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+    </row>
+    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L35" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="26">
+        <v>0</v>
+      </c>
+      <c r="N35" s="26">
+        <v>0</v>
+      </c>
+      <c r="O35" s="26">
+        <v>1</v>
+      </c>
+      <c r="P35" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="R35" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="S35" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="T35" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="V35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="X35" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y35" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AC35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AD35" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AE35" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AF35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+    </row>
+    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M36" s="26">
+        <v>0</v>
+      </c>
+      <c r="N36" s="26">
+        <v>0</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="R36" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="S36" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="T36" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="V36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="X36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AC36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AD36" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AE36" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AF36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AI36" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+    </row>
+    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="K37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="26">
+        <v>0</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="P37" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>1</v>
+      </c>
+      <c r="R37" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="S37" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="T37" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="V37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="W37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="X37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AC37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AD37" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AE37" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AI37" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AJ37" s="27">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+    </row>
+    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="P38" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="R38" s="26">
+        <v>1</v>
+      </c>
+      <c r="S38" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="T38" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="W38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Z38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AA38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AB38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AC38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AD38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AE38" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="AF38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AG38" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AH38" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AI38" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AJ38" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="AK38" s="27">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="27"/>
+    </row>
+    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0</v>
+      </c>
+      <c r="J39" s="26">
+        <v>0</v>
+      </c>
+      <c r="K39" s="26">
+        <v>0</v>
+      </c>
+      <c r="L39" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="M39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="O39" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="P39" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="R39" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="S39" s="26">
+        <v>1</v>
+      </c>
+      <c r="T39" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="V39" s="26">
+        <v>0</v>
+      </c>
+      <c r="W39" s="26">
+        <v>0</v>
+      </c>
+      <c r="X39" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Y39" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Z39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AA39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AB39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AF39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AG39" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AH39" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AI39" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AJ39" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AK39" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AL39" s="27">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="27"/>
+    </row>
+    <row r="40" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="H40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="I40" s="26">
+        <v>0</v>
+      </c>
+      <c r="J40" s="26">
+        <v>0</v>
+      </c>
+      <c r="K40" s="26">
+        <v>0</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="M40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="O40" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="R40" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="S40" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T40" s="26">
+        <v>1</v>
+      </c>
+      <c r="V40" s="26">
+        <v>0</v>
+      </c>
+      <c r="W40" s="26">
+        <v>0</v>
+      </c>
+      <c r="X40" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AB40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="AF40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AG40" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="AH40" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AI40" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AJ40" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="AK40" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AL40" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AM40" s="27">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C3:T20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:T40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ppt/simple example.xlsx
+++ b/ppt/simple example.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryYang\Desktop\Github\NTUIIE-Reserch\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9617C7A-9032-4A43-9F93-451D35701995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569FFA8F-C4E4-4620-BA93-F58F2EA5A624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" activeTab="2" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="93">
   <si>
     <t>Animal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -341,15 +342,20 @@
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Feature importance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,6 +411,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -576,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +675,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1495,22 +1510,22 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1519,82 +1534,82 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1603,82 +1618,82 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>6</c:v>
@@ -1924,91 +1939,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2017,16 +2032,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2610,88 +2625,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
@@ -2700,91 +2715,91 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1</c:v>
@@ -2796,10 +2811,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3042,7 +3057,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3057,13 +3072,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3072,52 +3087,52 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1</c:v>
@@ -3162,67 +3177,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="56">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1</c:v>
@@ -3231,7 +3246,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,6 +4843,376 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表3!$B$2:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Green</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Large</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gray</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tuna</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mid</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiny</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toad</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Small</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Goat</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dog</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Frog</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表3!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDD9-4717-8A14-49EB3163A064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1065605503"/>
+        <c:axId val="1150729919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1065605503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150729919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1150729919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065605503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8975,6 +9360,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11818,6 +12243,511 @@
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16860,6 +17790,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D4A4EE-B7A6-44EE-88FA-FBD655BD54E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -17159,7 +18130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6FDEF-34B0-40EE-B0E5-0931DE7ABBA0}">
   <dimension ref="B1:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="F6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AG61" sqref="AG61"/>
     </sheetView>
   </sheetViews>
@@ -17430,18 +18401,18 @@
       </c>
       <c r="AN5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
@@ -17537,18 +18508,18 @@
       </c>
       <c r="AM6">
         <f t="shared" ref="AM6:AM28" ca="1" si="2">INT(RAND()*3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <f t="shared" ref="AN6:AN29" ca="1" si="3">INT(RAND()*5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6">
         <f t="shared" ref="AQ6:AQ20" ca="1" si="4">INT(RAND()*5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR6">
         <f t="shared" ref="AR6:AR20" ca="1" si="5">INT(RAND()*2)</f>
@@ -17648,18 +18619,18 @@
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP7">
         <v>2</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="5"/>
@@ -17759,18 +18730,18 @@
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP8">
         <v>3</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="5"/>
@@ -17865,14 +18836,14 @@
       </c>
       <c r="AN9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP9">
         <v>4</v>
       </c>
       <c r="AQ9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR9">
         <f t="shared" ca="1" si="5"/>
@@ -17963,22 +18934,22 @@
       </c>
       <c r="AM10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP10">
         <v>5</v>
       </c>
       <c r="AQ10">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR10">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
@@ -17996,18 +18967,18 @@
       </c>
       <c r="AM11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN11">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP11">
         <v>6</v>
       </c>
       <c r="AQ11">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR11">
         <f t="shared" ca="1" si="5"/>
@@ -18040,11 +19011,11 @@
       </c>
       <c r="AQ12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.25">
@@ -18057,14 +19028,14 @@
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP13">
         <v>8</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="5"/>
@@ -18077,18 +19048,18 @@
       </c>
       <c r="AM14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP14">
         <v>9</v>
       </c>
       <c r="AQ14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <f t="shared" ca="1" si="5"/>
@@ -18101,22 +19072,22 @@
       </c>
       <c r="AM15">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP15">
         <v>10</v>
       </c>
       <c r="AQ15">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR15">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.25">
@@ -18125,7 +19096,7 @@
       </c>
       <c r="AM16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="3"/>
@@ -18136,11 +19107,11 @@
       </c>
       <c r="AQ16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="34:44" x14ac:dyDescent="0.25">
@@ -18153,18 +19124,18 @@
       </c>
       <c r="AN17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>12</v>
       </c>
       <c r="AQ17">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="34:44" x14ac:dyDescent="0.25">
@@ -18182,18 +19153,18 @@
       </c>
       <c r="AM18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
         <v>13</v>
       </c>
       <c r="AQ18">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR18">
         <f t="shared" ca="1" si="5"/>
@@ -18219,22 +19190,22 @@
       </c>
       <c r="AM19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP19">
         <v>14</v>
       </c>
       <c r="AQ19">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="34:44" x14ac:dyDescent="0.25">
@@ -18256,11 +19227,11 @@
       </c>
       <c r="AM20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>15</v>
@@ -18297,18 +19268,18 @@
       </c>
       <c r="AN21">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>16</v>
       </c>
       <c r="AQ21">
         <f ca="1">INT(RAND()*3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="34:44" x14ac:dyDescent="0.25">
@@ -18330,22 +19301,22 @@
       </c>
       <c r="AM22">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP22">
         <v>17</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ42" ca="1" si="7">INT(RAND()*3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR31" ca="1" si="8">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="34:44" x14ac:dyDescent="0.25">
@@ -18367,22 +19338,22 @@
       </c>
       <c r="AM23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP23">
         <v>18</v>
       </c>
       <c r="AQ23">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="34:44" x14ac:dyDescent="0.25">
@@ -18404,18 +19375,18 @@
       </c>
       <c r="AM24">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN24">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP24">
         <v>19</v>
       </c>
       <c r="AQ24">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <f t="shared" ca="1" si="8"/>
@@ -18428,7 +19399,7 @@
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="3"/>
@@ -18439,11 +19410,11 @@
       </c>
       <c r="AQ25">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="34:44" x14ac:dyDescent="0.25">
@@ -18461,11 +19432,11 @@
       </c>
       <c r="AM26">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN26">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP26">
         <v>21</v>
@@ -18476,7 +19447,7 @@
       </c>
       <c r="AR26">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="34:44" x14ac:dyDescent="0.25">
@@ -18498,22 +19469,22 @@
       </c>
       <c r="AM27">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN27">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP27">
         <v>22</v>
       </c>
       <c r="AQ27">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="34:44" x14ac:dyDescent="0.25">
@@ -18535,7 +19506,7 @@
       </c>
       <c r="AM28">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN28">
         <f t="shared" ca="1" si="3"/>
@@ -18550,7 +19521,7 @@
       </c>
       <c r="AR28">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="34:44" x14ac:dyDescent="0.25">
@@ -18572,22 +19543,22 @@
       </c>
       <c r="AM29">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN29">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP29">
         <v>24</v>
       </c>
       <c r="AQ29">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="34:44" x14ac:dyDescent="0.25">
@@ -18609,7 +19580,7 @@
       </c>
       <c r="AM30">
         <f t="shared" ref="AM30:AM54" ca="1" si="9">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN30">
         <f ca="1">INT(RAND()*2)</f>
@@ -18620,11 +19591,11 @@
       </c>
       <c r="AQ30">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="34:44" x14ac:dyDescent="0.25">
@@ -18650,7 +19621,7 @@
       </c>
       <c r="AN31">
         <f t="shared" ref="AN31:AN41" ca="1" si="10">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
         <v>26</v>
@@ -18683,18 +19654,18 @@
       </c>
       <c r="AM32">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN32">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
         <v>27</v>
       </c>
       <c r="AQ32">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <f ca="1">INT(RAND()*1)</f>
@@ -18707,11 +19678,11 @@
       </c>
       <c r="AM33">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN33">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>28</v>
@@ -18740,7 +19711,7 @@
       </c>
       <c r="AM34">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN34">
         <f t="shared" ca="1" si="10"/>
@@ -18773,7 +19744,7 @@
       </c>
       <c r="AM35">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN35">
         <f t="shared" ca="1" si="10"/>
@@ -18784,7 +19755,7 @@
       </c>
       <c r="AQ35">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <f t="shared" ca="1" si="11"/>
@@ -18806,18 +19777,18 @@
       </c>
       <c r="AM36">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN36">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>31</v>
       </c>
       <c r="AQ36">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <f t="shared" ca="1" si="11"/>
@@ -18839,11 +19810,11 @@
       </c>
       <c r="AM37">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN37">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
         <v>32</v>
@@ -18872,7 +19843,7 @@
       </c>
       <c r="AM38">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN38">
         <f t="shared" ca="1" si="10"/>
@@ -18883,7 +19854,7 @@
       </c>
       <c r="AQ38">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <f t="shared" ca="1" si="11"/>
@@ -18905,18 +19876,18 @@
       </c>
       <c r="AM39">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN39">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39">
         <v>34</v>
       </c>
       <c r="AQ39">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR39">
         <f t="shared" ca="1" si="11"/>
@@ -18997,7 +19968,7 @@
       </c>
       <c r="AQ40">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <f t="shared" ca="1" si="11"/>
@@ -19073,7 +20044,7 @@
       </c>
       <c r="AM42">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -19083,7 +20054,7 @@
       </c>
       <c r="AQ42">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <f t="shared" ca="1" si="11"/>
@@ -19118,7 +20089,7 @@
       </c>
       <c r="AQ43">
         <f ca="1">INT(RAND()*10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR43">
         <f t="shared" ca="1" si="11"/>
@@ -19143,7 +20114,7 @@
       </c>
       <c r="AM44">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -19153,7 +20124,7 @@
       </c>
       <c r="AQ44">
         <f t="shared" ref="AQ44:AQ49" ca="1" si="12">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR44">
         <f t="shared" ca="1" si="11"/>
@@ -19178,7 +20149,7 @@
       </c>
       <c r="AM45">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -19192,7 +20163,7 @@
       </c>
       <c r="AR45">
         <f ca="1">INT(RAND()*6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.25">
@@ -19213,7 +20184,7 @@
       </c>
       <c r="AM46">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -19223,11 +20194,11 @@
       </c>
       <c r="AQ46">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR46">
         <f t="shared" ref="AR46:AR58" ca="1" si="13">INT(RAND()*6)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.25">
@@ -19248,7 +20219,7 @@
       </c>
       <c r="AM47">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -19258,11 +20229,11 @@
       </c>
       <c r="AQ47">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:44" x14ac:dyDescent="0.25">
@@ -19283,7 +20254,7 @@
       </c>
       <c r="AM48">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -19293,11 +20264,11 @@
       </c>
       <c r="AQ48">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR48">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="6:44" x14ac:dyDescent="0.25">
@@ -19309,7 +20280,7 @@
       </c>
       <c r="AM49">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -19319,11 +20290,11 @@
       </c>
       <c r="AQ49">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR49">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="6:44" x14ac:dyDescent="0.25">
@@ -19335,7 +20306,7 @@
       </c>
       <c r="AM50">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -19345,7 +20316,7 @@
       </c>
       <c r="AQ50">
         <f ca="1">INT(RAND()*10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <f t="shared" ca="1" si="13"/>
@@ -19361,7 +20332,7 @@
       </c>
       <c r="AM51">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -19371,11 +20342,11 @@
       </c>
       <c r="AQ51">
         <f t="shared" ref="AQ51:AQ59" ca="1" si="14">INT(RAND()*10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AR51">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="6:44" x14ac:dyDescent="0.25">
@@ -19401,7 +20372,7 @@
       </c>
       <c r="AR52">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="6:44" x14ac:dyDescent="0.25">
@@ -19413,7 +20384,7 @@
       </c>
       <c r="AM53">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -19423,11 +20394,11 @@
       </c>
       <c r="AQ53">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR53">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="6:44" x14ac:dyDescent="0.25">
@@ -19449,11 +20420,11 @@
       </c>
       <c r="AQ54">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AR54">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="6:44" x14ac:dyDescent="0.25">
@@ -19465,7 +20436,7 @@
       </c>
       <c r="AM55">
         <f t="shared" ref="AM55:AM68" ca="1" si="15">INT(RAND()*10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -19475,11 +20446,11 @@
       </c>
       <c r="AQ55">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR55">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="6:44" x14ac:dyDescent="0.25">
@@ -19491,7 +20462,7 @@
       </c>
       <c r="AM56">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -19501,11 +20472,11 @@
       </c>
       <c r="AQ56">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR56">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="6:44" x14ac:dyDescent="0.25">
@@ -19517,7 +20488,7 @@
       </c>
       <c r="AM57">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -19527,11 +20498,11 @@
       </c>
       <c r="AQ57">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="6:44" x14ac:dyDescent="0.25">
@@ -19543,7 +20514,7 @@
       </c>
       <c r="AM58">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -19553,11 +20524,11 @@
       </c>
       <c r="AQ58">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR58">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="6:44" x14ac:dyDescent="0.25">
@@ -19566,7 +20537,7 @@
       </c>
       <c r="AM59">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -19576,11 +20547,11 @@
       </c>
       <c r="AQ59">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="6:44" x14ac:dyDescent="0.25">
@@ -19589,7 +20560,7 @@
       </c>
       <c r="AM60">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -19599,11 +20570,11 @@
       </c>
       <c r="AQ60">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
         <f t="shared" ref="AR60:AR68" ca="1" si="16">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="6:44" x14ac:dyDescent="0.25">
@@ -19642,7 +20613,7 @@
       </c>
       <c r="AM61">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -19656,7 +20627,7 @@
       </c>
       <c r="AR61">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="6:44" x14ac:dyDescent="0.25">
@@ -19695,7 +20666,7 @@
       </c>
       <c r="AM62">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -19705,7 +20676,7 @@
       </c>
       <c r="AQ62">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <f t="shared" ca="1" si="16"/>
@@ -19748,7 +20719,7 @@
       </c>
       <c r="AM63">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -19758,11 +20729,11 @@
       </c>
       <c r="AQ63">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="6:44" x14ac:dyDescent="0.25">
@@ -19771,7 +20742,7 @@
       </c>
       <c r="AM64">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -19785,7 +20756,7 @@
       </c>
       <c r="AR64">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="38:44" x14ac:dyDescent="0.25">
@@ -19808,7 +20779,7 @@
       </c>
       <c r="AR65">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="38:44" x14ac:dyDescent="0.25">
@@ -19817,7 +20788,7 @@
       </c>
       <c r="AM66">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -19840,7 +20811,7 @@
       </c>
       <c r="AM67">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -19850,7 +20821,7 @@
       </c>
       <c r="AQ67">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <f t="shared" ca="1" si="16"/>
@@ -19873,11 +20844,11 @@
       </c>
       <c r="AQ68">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19901,8 +20872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52547F59-F4E5-421C-9107-A7FB7AFAB87A}">
   <dimension ref="B2:AM40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:T40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -20035,8 +21006,6 @@
       <c r="T3" s="18">
         <v>0</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
@@ -20112,8 +21081,6 @@
       <c r="T4" s="18">
         <v>0</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
@@ -20189,8 +21156,6 @@
       <c r="T5" s="18">
         <v>0.3</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
@@ -20266,8 +21231,6 @@
       <c r="T6" s="18">
         <v>0</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
@@ -20343,8 +21306,6 @@
       <c r="T7" s="18">
         <v>0.3</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
@@ -20420,8 +21381,6 @@
       <c r="T8" s="18">
         <v>0.3</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
@@ -20497,8 +21456,6 @@
       <c r="T9" s="18">
         <v>0</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
@@ -20574,8 +21531,6 @@
       <c r="T10" s="18">
         <v>0</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
@@ -20651,8 +21606,6 @@
       <c r="T11" s="18">
         <v>0.2</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
@@ -20728,8 +21681,6 @@
       <c r="T12" s="18">
         <v>0.2</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
@@ -20805,8 +21756,6 @@
       <c r="T13" s="18">
         <v>0.6</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
@@ -20882,8 +21831,6 @@
       <c r="T14" s="18">
         <v>0.2</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
@@ -20959,8 +21906,6 @@
       <c r="T15" s="18">
         <v>0.4</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
@@ -21036,8 +21981,6 @@
       <c r="T16" s="18">
         <v>0.8</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
@@ -21113,8 +22056,6 @@
       <c r="T17" s="18">
         <v>0.4</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
@@ -21190,8 +22131,6 @@
       <c r="T18" s="18">
         <v>0.8</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
@@ -21267,8 +22206,6 @@
       <c r="T19" s="18">
         <v>0.4</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
@@ -23175,4 +24112,173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170AA628-8324-416F-8BB4-346FB2A4B7D1}">
+  <dimension ref="B1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="29">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="29">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="29">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="29">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="29">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:C20">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ppt/simple example.xlsx
+++ b/ppt/simple example.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TerryYang\Desktop\Github\NTUIIE-Reserch\ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4864A2F3-5B90-4977-B34C-463908ADA007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C614BBD-819B-4698-B13B-302CA1C0EB4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" activeTab="1" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="8250" xr2:uid="{4C0305B4-DB1F-41C3-80D1-DA3BC7A907B2}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表4" sheetId="4" r:id="rId2"/>
     <sheet name="工作表2" sheetId="2" r:id="rId3"/>
     <sheet name="工作表3" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="66">
   <si>
     <t>Animal</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -257,6 +258,10 @@
   </si>
   <si>
     <t>Binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1420,37 +1425,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
@@ -1459,49 +1464,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -1510,103 +1515,103 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="60">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>8</c:v>
@@ -1852,40 +1857,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
@@ -1894,73 +1899,73 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -2541,37 +2546,37 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
@@ -2583,43 +2588,43 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
@@ -2628,88 +2633,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="54">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1</c:v>
@@ -2721,7 +2726,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1</c:v>
@@ -2970,22 +2975,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -2994,7 +2999,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3003,13 +3008,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -3021,10 +3026,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3036,19 +3041,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -3093,40 +3098,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>1</c:v>
@@ -3135,16 +3140,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1</c:v>
@@ -6528,10 +6533,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6543,37 +6548,37 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -6582,7 +6587,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
@@ -6600,31 +6605,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
@@ -6636,40 +6641,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -6678,46 +6683,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6962,64 +6967,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3</c:v>
@@ -7028,13 +7033,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
@@ -7043,31 +7048,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -7733,10 +7738,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7748,37 +7753,37 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -7787,7 +7792,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
@@ -7805,31 +7810,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1</c:v>
@@ -7841,40 +7846,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -7883,46 +7888,46 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8165,64 +8170,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="64"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3</c:v>
@@ -8231,13 +8236,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
@@ -8246,31 +8251,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -29161,8 +29166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B6FDEF-34B0-40EE-B0E5-0931DE7ABBA0}">
   <dimension ref="B1:AR70"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4:AR70"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -29428,11 +29433,11 @@
       </c>
       <c r="AM5">
         <f ca="1">INT(RAND()*3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN5">
         <f ca="1">INT(RAND()*5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -29443,7 +29448,7 @@
       </c>
       <c r="AR5">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
@@ -29543,18 +29548,18 @@
       </c>
       <c r="AN6">
         <f t="shared" ref="AN6:AN29" ca="1" si="3">INT(RAND()*5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP6">
         <v>1</v>
       </c>
       <c r="AQ6">
         <f t="shared" ref="AQ6:AQ20" ca="1" si="4">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <f t="shared" ref="AR6:AR20" ca="1" si="5">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.25">
@@ -29650,22 +29655,22 @@
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP7">
         <v>2</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.25">
@@ -29761,22 +29766,22 @@
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP8">
         <v>3</v>
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.25">
@@ -29863,11 +29868,11 @@
       </c>
       <c r="AM9">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9">
         <v>4</v>
@@ -29878,7 +29883,7 @@
       </c>
       <c r="AR9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.25">
@@ -29965,22 +29970,22 @@
       </c>
       <c r="AM10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP10">
         <v>5</v>
       </c>
       <c r="AQ10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
@@ -29998,11 +30003,11 @@
       </c>
       <c r="AM11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP11">
         <v>6</v>
@@ -30031,18 +30036,18 @@
       </c>
       <c r="AM12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>7</v>
       </c>
       <c r="AQ12">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR12">
         <f t="shared" ca="1" si="5"/>
@@ -30059,7 +30064,7 @@
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP13">
         <v>8</v>
@@ -30070,7 +30075,7 @@
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.25">
@@ -30079,18 +30084,18 @@
       </c>
       <c r="AM14">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
         <v>9</v>
       </c>
       <c r="AQ14">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <f t="shared" ca="1" si="5"/>
@@ -30103,18 +30108,18 @@
       </c>
       <c r="AM15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP15">
         <v>10</v>
       </c>
       <c r="AQ15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <f t="shared" ca="1" si="5"/>
@@ -30131,18 +30136,18 @@
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
         <v>11</v>
       </c>
       <c r="AQ16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR16">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="34:44" x14ac:dyDescent="0.25">
@@ -30184,7 +30189,7 @@
       </c>
       <c r="AM18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="3"/>
@@ -30199,7 +30204,7 @@
       </c>
       <c r="AR18">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="34:44" x14ac:dyDescent="0.25">
@@ -30225,7 +30230,7 @@
       </c>
       <c r="AN19">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP19">
         <v>14</v>
@@ -30258,18 +30263,18 @@
       </c>
       <c r="AM20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP20">
         <v>15</v>
       </c>
       <c r="AQ20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <f t="shared" ca="1" si="5"/>
@@ -30295,18 +30300,18 @@
       </c>
       <c r="AM21">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP21">
         <v>16</v>
       </c>
       <c r="AQ21">
         <f ca="1">INT(RAND()*3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <f ca="1">INT(RAND()*5)</f>
@@ -30336,18 +30341,18 @@
       </c>
       <c r="AN22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
         <v>17</v>
       </c>
       <c r="AQ22">
         <f t="shared" ref="AQ22:AQ42" ca="1" si="7">INT(RAND()*3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <f t="shared" ref="AR22:AR31" ca="1" si="8">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="34:44" x14ac:dyDescent="0.25">
@@ -30369,7 +30374,7 @@
       </c>
       <c r="AM23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <f t="shared" ca="1" si="3"/>
@@ -30380,11 +30385,11 @@
       </c>
       <c r="AQ23">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="34:44" x14ac:dyDescent="0.25">
@@ -30406,18 +30411,18 @@
       </c>
       <c r="AM24">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP24">
         <v>19</v>
       </c>
       <c r="AQ24">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <f t="shared" ca="1" si="8"/>
@@ -30430,7 +30435,7 @@
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="3"/>
@@ -30441,7 +30446,7 @@
       </c>
       <c r="AQ25">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="8"/>
@@ -30467,14 +30472,14 @@
       </c>
       <c r="AN26">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP26">
         <v>21</v>
       </c>
       <c r="AQ26">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26">
         <f t="shared" ca="1" si="8"/>
@@ -30500,22 +30505,22 @@
       </c>
       <c r="AM27">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN27">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP27">
         <v>22</v>
       </c>
       <c r="AQ27">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="34:44" x14ac:dyDescent="0.25">
@@ -30537,7 +30542,7 @@
       </c>
       <c r="AM28">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <f t="shared" ca="1" si="3"/>
@@ -30574,22 +30579,22 @@
       </c>
       <c r="AM29">
         <f ca="1">INT(RAND()*5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29">
         <v>24</v>
       </c>
       <c r="AQ29">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="34:44" x14ac:dyDescent="0.25">
@@ -30611,22 +30616,22 @@
       </c>
       <c r="AM30">
         <f t="shared" ref="AM30:AM54" ca="1" si="9">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
         <f ca="1">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
         <v>25</v>
       </c>
       <c r="AQ30">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="34:44" x14ac:dyDescent="0.25">
@@ -30648,7 +30653,7 @@
       </c>
       <c r="AM31">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN31">
         <f t="shared" ref="AN31:AN41" ca="1" si="10">INT(RAND()*2)</f>
@@ -30663,7 +30668,7 @@
       </c>
       <c r="AR31">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="34:44" x14ac:dyDescent="0.25">
@@ -30685,18 +30690,18 @@
       </c>
       <c r="AM32">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
         <v>27</v>
       </c>
       <c r="AQ32">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <f ca="1">INT(RAND()*1)</f>
@@ -30713,7 +30718,7 @@
       </c>
       <c r="AN33">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>28</v>
@@ -30746,7 +30751,7 @@
       </c>
       <c r="AN34">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
         <v>29</v>
@@ -30775,18 +30780,18 @@
       </c>
       <c r="AM35">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN35">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
         <v>30</v>
       </c>
       <c r="AQ35">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <f t="shared" ca="1" si="11"/>
@@ -30808,18 +30813,18 @@
       </c>
       <c r="AM36">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN36">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>31</v>
       </c>
       <c r="AQ36">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <f t="shared" ca="1" si="11"/>
@@ -30841,18 +30846,18 @@
       </c>
       <c r="AM37">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN37">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
         <v>32</v>
       </c>
       <c r="AQ37">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR37">
         <f t="shared" ca="1" si="11"/>
@@ -30874,7 +30879,7 @@
       </c>
       <c r="AM38">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN38">
         <f t="shared" ca="1" si="10"/>
@@ -30885,7 +30890,7 @@
       </c>
       <c r="AQ38">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <f t="shared" ca="1" si="11"/>
@@ -30907,11 +30912,11 @@
       </c>
       <c r="AM39">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN39">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39">
         <v>34</v>
@@ -30988,18 +30993,18 @@
       </c>
       <c r="AM40">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN40">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40">
         <v>35</v>
       </c>
       <c r="AQ40">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40">
         <f t="shared" ca="1" si="11"/>
@@ -31039,11 +31044,11 @@
       </c>
       <c r="AM41">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN41">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
         <v>36</v>
@@ -31075,7 +31080,7 @@
       </c>
       <c r="AM42">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -31085,7 +31090,7 @@
       </c>
       <c r="AQ42">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <f t="shared" ca="1" si="11"/>
@@ -31110,7 +31115,7 @@
       </c>
       <c r="AM43">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -31120,7 +31125,7 @@
       </c>
       <c r="AQ43">
         <f ca="1">INT(RAND()*10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <f t="shared" ca="1" si="11"/>
@@ -31145,7 +31150,7 @@
       </c>
       <c r="AM44">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -31155,7 +31160,7 @@
       </c>
       <c r="AQ44">
         <f t="shared" ref="AQ44:AQ49" ca="1" si="12">INT(RAND()*5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR44">
         <f t="shared" ca="1" si="11"/>
@@ -31180,7 +31185,7 @@
       </c>
       <c r="AM45">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -31190,7 +31195,7 @@
       </c>
       <c r="AQ45">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR45">
         <f ca="1">INT(RAND()*6)</f>
@@ -31225,11 +31230,11 @@
       </c>
       <c r="AQ46">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR46">
         <f t="shared" ref="AR46:AR58" ca="1" si="13">INT(RAND()*6)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.25">
@@ -31250,7 +31255,7 @@
       </c>
       <c r="AM47">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -31260,11 +31265,11 @@
       </c>
       <c r="AQ47">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR47">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:44" x14ac:dyDescent="0.25">
@@ -31285,7 +31290,7 @@
       </c>
       <c r="AM48">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -31295,11 +31300,11 @@
       </c>
       <c r="AQ48">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:44" x14ac:dyDescent="0.25">
@@ -31311,7 +31316,7 @@
       </c>
       <c r="AM49">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -31321,7 +31326,7 @@
       </c>
       <c r="AQ49">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <f t="shared" ca="1" si="13"/>
@@ -31337,7 +31342,7 @@
       </c>
       <c r="AM50">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -31347,11 +31352,11 @@
       </c>
       <c r="AQ50">
         <f ca="1">INT(RAND()*10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:44" x14ac:dyDescent="0.25">
@@ -31363,7 +31368,7 @@
       </c>
       <c r="AM51">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -31373,11 +31378,11 @@
       </c>
       <c r="AQ51">
         <f t="shared" ref="AQ51:AQ59" ca="1" si="14">INT(RAND()*10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:44" x14ac:dyDescent="0.25">
@@ -31389,7 +31394,7 @@
       </c>
       <c r="AM52">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -31399,11 +31404,11 @@
       </c>
       <c r="AQ52">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR52">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:44" x14ac:dyDescent="0.25">
@@ -31415,7 +31420,7 @@
       </c>
       <c r="AM53">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -31425,11 +31430,11 @@
       </c>
       <c r="AQ53">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR53">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:44" x14ac:dyDescent="0.25">
@@ -31441,7 +31446,7 @@
       </c>
       <c r="AM54">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -31451,11 +31456,11 @@
       </c>
       <c r="AQ54">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR54">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:44" x14ac:dyDescent="0.25">
@@ -31467,7 +31472,7 @@
       </c>
       <c r="AM55">
         <f t="shared" ref="AM55:AM70" ca="1" si="15">INT(RAND()*10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -31477,11 +31482,11 @@
       </c>
       <c r="AQ55">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR55">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:44" x14ac:dyDescent="0.25">
@@ -31493,7 +31498,7 @@
       </c>
       <c r="AM56">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -31503,11 +31508,11 @@
       </c>
       <c r="AQ56">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AR56">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:44" x14ac:dyDescent="0.25">
@@ -31519,7 +31524,7 @@
       </c>
       <c r="AM57">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -31529,11 +31534,11 @@
       </c>
       <c r="AQ57">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR57">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:44" x14ac:dyDescent="0.25">
@@ -31545,7 +31550,7 @@
       </c>
       <c r="AM58">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -31555,7 +31560,7 @@
       </c>
       <c r="AQ58">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR58">
         <f t="shared" ca="1" si="13"/>
@@ -31568,7 +31573,7 @@
       </c>
       <c r="AM59">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -31578,7 +31583,7 @@
       </c>
       <c r="AQ59">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR59">
         <f ca="1">INT(RAND()*2)</f>
@@ -31591,7 +31596,7 @@
       </c>
       <c r="AM60">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -31601,11 +31606,11 @@
       </c>
       <c r="AQ60">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR60">
         <f t="shared" ref="AR60:AR70" ca="1" si="16">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:44" x14ac:dyDescent="0.25">
@@ -31614,7 +31619,7 @@
       </c>
       <c r="AM61">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -31624,11 +31629,11 @@
       </c>
       <c r="AQ61">
         <f t="shared" ref="AQ61:AQ70" ca="1" si="17">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR61">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:44" x14ac:dyDescent="0.25">
@@ -31696,7 +31701,7 @@
       </c>
       <c r="AM63">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -31706,7 +31711,7 @@
       </c>
       <c r="AQ63">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63">
         <f t="shared" ca="1" si="16"/>
@@ -31781,7 +31786,7 @@
       </c>
       <c r="AM65">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -31795,7 +31800,7 @@
       </c>
       <c r="AR65">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:44" x14ac:dyDescent="0.25">
@@ -31887,7 +31892,7 @@
       </c>
       <c r="AM67">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -31940,7 +31945,7 @@
       </c>
       <c r="AM68">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -31950,7 +31955,7 @@
       </c>
       <c r="AQ68">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <f t="shared" ca="1" si="16"/>
@@ -31963,7 +31968,7 @@
       </c>
       <c r="AM69">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -32027,7 +32032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E43E28F-7B7A-4F32-94FB-90C553565865}">
   <dimension ref="B2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="G24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
@@ -32059,11 +32064,11 @@
       </c>
       <c r="C3">
         <f ca="1">INT(RAND()*3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f ca="1">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -32085,11 +32090,11 @@
       </c>
       <c r="L3">
         <f ca="1">C3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f ca="1">D3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -32098,18 +32103,18 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C26" ca="1" si="0">INT(RAND()*3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D27" ca="1" si="1">INT(RAND()*5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G18" ca="1" si="2">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H18" ca="1" si="3">INT(RAND()*2)</f>
@@ -32124,11 +32129,11 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:M66" ca="1" si="5">C4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -32141,14 +32146,14 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
@@ -32167,7 +32172,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -32180,7 +32185,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -32191,7 +32196,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -32206,7 +32211,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -32219,14 +32224,14 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
@@ -32245,7 +32250,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -32254,22 +32259,22 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -32280,11 +32285,11 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -32293,22 +32298,22 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -32319,11 +32324,11 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -32332,22 +32337,22 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>7</v>
@@ -32358,11 +32363,11 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -32371,18 +32376,18 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
@@ -32397,11 +32402,11 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -32410,22 +32415,22 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -32436,11 +32441,11 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -32449,11 +32454,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -32475,11 +32480,11 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -32488,18 +32493,18 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>11</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
@@ -32514,11 +32519,11 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -32527,22 +32532,22 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>12</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>12</v>
@@ -32553,11 +32558,11 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -32566,18 +32571,18 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>13</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
@@ -32592,11 +32597,11 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -32609,14 +32614,14 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>14</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
@@ -32635,7 +32640,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -32644,18 +32649,18 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
@@ -32670,11 +32675,11 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -32687,7 +32692,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>16</v>
@@ -32698,7 +32703,7 @@
       </c>
       <c r="H19">
         <f ca="1">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>16</v>
@@ -32713,7 +32718,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -32726,18 +32731,18 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>17</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:G40" ca="1" si="6">INT(RAND()*3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:H29" ca="1" si="7">INT(RAND()*5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -32752,7 +32757,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -32761,22 +32766,22 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>18</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -32787,11 +32792,11 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -32804,14 +32809,14 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>19</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
@@ -32830,7 +32835,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -32850,7 +32855,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
@@ -32893,7 +32898,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>21</v>
@@ -32921,18 +32926,18 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>22</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>22</v>
@@ -32947,7 +32952,7 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -32960,18 +32965,18 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>23</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>23</v>
@@ -32986,7 +32991,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -32995,11 +33000,11 @@
       </c>
       <c r="C27">
         <f ca="1">INT(RAND()*5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>24</v>
@@ -33010,7 +33015,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27">
         <v>24</v>
@@ -33021,11 +33026,11 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -33034,7 +33039,7 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:C52" ca="1" si="8">INT(RAND()*5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f ca="1">INT(RAND()*2)</f>
@@ -33045,11 +33050,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>25</v>
@@ -33060,7 +33065,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
@@ -33073,7 +33078,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <f t="shared" ref="D29:D39" ca="1" si="9">INT(RAND()*2)</f>
@@ -33084,11 +33089,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <v>26</v>
@@ -33099,7 +33104,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
@@ -33112,18 +33117,18 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>27</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f ca="1">INT(RAND()*1)</f>
@@ -33138,11 +33143,11 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -33151,18 +33156,18 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>28</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H42" ca="1" si="10">INT(RAND()*1)</f>
@@ -33177,11 +33182,11 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -33190,7 +33195,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="9"/>
@@ -33216,7 +33221,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
@@ -33233,14 +33238,14 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>30</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="10"/>
@@ -33259,7 +33264,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -33268,11 +33273,11 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>31</v>
@@ -33294,11 +33299,11 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -33307,11 +33312,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>32</v>
@@ -33333,11 +33338,11 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -33350,7 +33355,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>33</v>
@@ -33376,7 +33381,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -33396,7 +33401,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="10"/>
@@ -33428,14 +33433,14 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>35</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="10"/>
@@ -33454,7 +33459,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -33463,7 +33468,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="9"/>
@@ -33489,7 +33494,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
@@ -33502,7 +33507,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -33512,7 +33517,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="10"/>
@@ -33527,7 +33532,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
@@ -33540,7 +33545,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -33550,7 +33555,7 @@
       </c>
       <c r="G41">
         <f ca="1">INT(RAND()*10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="10"/>
@@ -33565,7 +33570,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
@@ -33578,7 +33583,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -33603,7 +33608,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
@@ -33626,11 +33631,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <f ca="1">INT(RAND()*6)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>40</v>
@@ -33654,7 +33659,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -33664,11 +33669,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <f t="shared" ref="H44:H56" ca="1" si="12">INT(RAND()*6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44">
         <v>41</v>
@@ -33679,7 +33684,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
@@ -33702,11 +33707,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>42</v>
@@ -33730,7 +33735,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -33740,11 +33745,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <v>43</v>
@@ -33755,7 +33760,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
@@ -33768,7 +33773,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -33778,7 +33783,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="12"/>
@@ -33793,7 +33798,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
@@ -33816,11 +33821,11 @@
       </c>
       <c r="G48">
         <f ca="1">INT(RAND()*10)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>45</v>
@@ -33844,7 +33849,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -33854,11 +33859,11 @@
       </c>
       <c r="G49">
         <f t="shared" ref="G49:G57" ca="1" si="13">INT(RAND()*10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49">
         <v>46</v>
@@ -33869,7 +33874,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
@@ -33882,7 +33887,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -33892,11 +33897,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>47</v>
@@ -33907,7 +33912,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
@@ -33930,11 +33935,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>48</v>
@@ -33972,7 +33977,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52">
         <v>49</v>
@@ -33996,7 +34001,7 @@
       </c>
       <c r="C53">
         <f t="shared" ref="C53:C66" ca="1" si="14">INT(RAND()*10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -34006,11 +34011,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>50</v>
@@ -34021,7 +34026,7 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
@@ -34034,7 +34039,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -34044,7 +34049,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="12"/>
@@ -34059,7 +34064,7 @@
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
@@ -34072,7 +34077,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -34086,7 +34091,7 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <v>52</v>
@@ -34097,7 +34102,7 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
@@ -34110,7 +34115,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -34120,11 +34125,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <v>53</v>
@@ -34135,7 +34140,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
@@ -34148,7 +34153,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -34158,11 +34163,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <f ca="1">INT(RAND()*2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>54</v>
@@ -34173,7 +34178,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
@@ -34186,7 +34191,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -34211,7 +34216,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
@@ -34224,7 +34229,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -34234,11 +34239,11 @@
       </c>
       <c r="G59">
         <f t="shared" ref="G59:G66" ca="1" si="16">INT(RAND()*2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>56</v>
@@ -34249,7 +34254,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
@@ -34262,7 +34267,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -34276,7 +34281,7 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>57</v>
@@ -34287,7 +34292,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
@@ -34300,7 +34305,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -34325,7 +34330,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
@@ -34338,7 +34343,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -34352,7 +34357,7 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>59</v>
@@ -34363,7 +34368,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
@@ -34376,7 +34381,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -34386,7 +34391,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="15"/>
@@ -34401,7 +34406,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
@@ -34414,7 +34419,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -34424,7 +34429,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="15"/>
@@ -34439,7 +34444,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
@@ -34452,7 +34457,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -34462,11 +34467,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>62</v>
@@ -34477,7 +34482,7 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
@@ -34490,7 +34495,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -34515,7 +34520,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
@@ -37779,7 +37784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170AA628-8324-416F-8BB4-346FB2A4B7D1}">
   <dimension ref="B1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="L22" sqref="L22:N28"/>
     </sheetView>
   </sheetViews>
@@ -38547,4 +38552,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76AF92C-1C06-4DB9-89EF-FA1C85C02693}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>